--- a/Discrete cosine transform.xlsx
+++ b/Discrete cosine transform.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uporabnik\Documents\DCT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78999507-113E-4ED6-8659-36E94E8F26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{AA5B9487-A7ED-4C02-9FDC-10F45FBE8F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C494568C-0EC4-4007-B42C-44A6F6B2163F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{368B135D-14A8-4707-A4A9-8B692AD8CD57}"/>
+    <workbookView xWindow="3690" yWindow="3330" windowWidth="18915" windowHeight="10200" xr2:uid="{368B135D-14A8-4707-A4A9-8B692AD8CD57}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital signal processing" sheetId="1" r:id="rId1"/>
@@ -337,9 +332,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -363,6 +355,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4119,7 +4114,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4127,6 +4121,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5653,25 +5648,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C50135F-21A5-4A29-B007-EE39A0AB37C8}">
   <dimension ref="A1:CH273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="9" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.81640625" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -5687,7 +5682,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="10"/>
@@ -5765,20 +5760,20 @@
       <c r="CG3" s="7"/>
       <c r="CH3" s="7"/>
     </row>
-    <row r="4" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="19" t="s">
+    <row r="4" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -5851,16 +5846,16 @@
       <c r="CG4" s="7"/>
       <c r="CH4" s="7"/>
     </row>
-    <row r="5" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+    <row r="5" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -5933,16 +5928,16 @@
       <c r="CG5" s="7"/>
       <c r="CH5" s="7"/>
     </row>
-    <row r="6" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+    <row r="6" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -6015,16 +6010,16 @@
       <c r="CG6" s="7"/>
       <c r="CH6" s="7"/>
     </row>
-    <row r="7" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+    <row r="7" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -6097,16 +6092,16 @@
       <c r="CG7" s="7"/>
       <c r="CH7" s="7"/>
     </row>
-    <row r="8" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+    <row r="8" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -6179,16 +6174,16 @@
       <c r="CG8" s="7"/>
       <c r="CH8" s="7"/>
     </row>
-    <row r="9" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+    <row r="9" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -6261,16 +6256,16 @@
       <c r="CG9" s="7"/>
       <c r="CH9" s="7"/>
     </row>
-    <row r="10" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+    <row r="10" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -6343,15 +6338,15 @@
       <c r="CG10" s="7"/>
       <c r="CH10" s="7"/>
     </row>
-    <row r="11" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+    <row r="11" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -6424,15 +6419,15 @@
       <c r="CG11" s="7"/>
       <c r="CH11" s="7"/>
     </row>
-    <row r="12" spans="1:86" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+    <row r="12" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -6505,34 +6500,34 @@
       <c r="CG12" s="7"/>
       <c r="CH12" s="7"/>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="12"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
       <c r="L15" s="5" t="s">
         <v>13</v>
       </c>
@@ -6540,12 +6535,12 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
       <c r="L16" s="16" t="s">
         <v>12</v>
       </c>
@@ -6557,56 +6552,56 @@
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f>COUNT(I18:I117)</f>
         <v>100</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="15"/>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>20</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <v>16</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="24">
         <v>12</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="27" t="str">
+      <c r="Q17" s="26" t="str">
         <f>L17 &amp; " c."</f>
         <v>20 c.</v>
       </c>
-      <c r="R17" s="27" t="str">
+      <c r="R17" s="26" t="str">
         <f t="shared" ref="R17:S17" si="0">M17 &amp; " c."</f>
         <v>16 c.</v>
       </c>
-      <c r="S17" s="27" t="str">
+      <c r="S17" s="26" t="str">
         <f t="shared" si="0"/>
         <v>12 c.</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>0</v>
       </c>
@@ -6622,19 +6617,19 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="14">
-        <f>IF(L$17&lt;=$I18,0,$J18)</f>
+        <f t="shared" ref="L18:N37" si="1">IF(L$17&lt;=$I18,0,$J18)</f>
         <v>-27.799999999999997</v>
       </c>
       <c r="M18" s="14">
-        <f>IF(M$17&lt;=$I18,0,$J18)</f>
+        <f t="shared" si="1"/>
         <v>-27.799999999999997</v>
       </c>
       <c r="N18" s="14">
-        <f>IF(N$17&lt;=$I18,0,$J18)</f>
+        <f t="shared" si="1"/>
         <v>-27.799999999999997</v>
       </c>
       <c r="O18" s="14">
-        <f>I18</f>
+        <f t="shared" ref="O18:O49" si="2">I18</f>
         <v>0</v>
       </c>
       <c r="P18" s="11" cm="1">
@@ -6654,7 +6649,7 @@
         <v>278.08296112077005</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <f>B18+1</f>
         <v>1</v>
@@ -6672,19 +6667,19 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="14">
-        <f>IF(L$17&lt;=$I19,0,$J19)</f>
+        <f t="shared" si="1"/>
         <v>43.478608885350503</v>
       </c>
       <c r="M19" s="14">
-        <f>IF(M$17&lt;=$I19,0,$J19)</f>
+        <f t="shared" si="1"/>
         <v>43.478608885350503</v>
       </c>
       <c r="N19" s="14">
-        <f>IF(N$17&lt;=$I19,0,$J19)</f>
+        <f t="shared" si="1"/>
         <v>43.478608885350503</v>
       </c>
       <c r="O19" s="14">
-        <f>I19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P19" s="11" cm="1">
@@ -6704,16 +6699,16 @@
         <v>251.54781066259929</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
-        <f t="shared" ref="B20:B83" si="1">B19+1</f>
+        <f t="shared" ref="B20:B83" si="3">B19+1</f>
         <v>2</v>
       </c>
       <c r="C20">
         <v>249</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" ref="I20:I83" si="2">I19+1</f>
+        <f t="shared" ref="I20:I83" si="4">I19+1</f>
         <v>2</v>
       </c>
       <c r="J20" s="15" cm="1">
@@ -6722,19 +6717,19 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="14">
-        <f>IF(L$17&lt;=$I20,0,$J20)</f>
+        <f t="shared" si="1"/>
         <v>-168.13631584779077</v>
       </c>
       <c r="M20" s="14">
-        <f>IF(M$17&lt;=$I20,0,$J20)</f>
+        <f t="shared" si="1"/>
         <v>-168.13631584779077</v>
       </c>
       <c r="N20" s="14">
-        <f>IF(N$17&lt;=$I20,0,$J20)</f>
+        <f t="shared" si="1"/>
         <v>-168.13631584779077</v>
       </c>
       <c r="O20" s="14">
-        <f>I20</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P20" s="11" cm="1">
@@ -6754,16 +6749,16 @@
         <v>201.26907389633007</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C21">
         <v>121</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J21" s="15" cm="1">
@@ -6772,19 +6767,19 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="14">
-        <f>IF(L$17&lt;=$I21,0,$J21)</f>
+        <f t="shared" si="1"/>
         <v>101.49050620629924</v>
       </c>
       <c r="M21" s="14">
-        <f>IF(M$17&lt;=$I21,0,$J21)</f>
+        <f t="shared" si="1"/>
         <v>101.49050620629924</v>
       </c>
       <c r="N21" s="14">
-        <f>IF(N$17&lt;=$I21,0,$J21)</f>
+        <f t="shared" si="1"/>
         <v>101.49050620629924</v>
       </c>
       <c r="O21" s="14">
-        <f>I21</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P21" s="11" cm="1">
@@ -6804,17 +6799,17 @@
         <v>132.52873305352389</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C22">
         <v>-38</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J22" s="15" cm="1">
@@ -6823,19 +6818,19 @@
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="14">
-        <f>IF(L$17&lt;=$I22,0,$J22)</f>
+        <f t="shared" si="1"/>
         <v>253.53126804432006</v>
       </c>
       <c r="M22" s="14">
-        <f>IF(M$17&lt;=$I22,0,$J22)</f>
+        <f t="shared" si="1"/>
         <v>253.53126804432006</v>
       </c>
       <c r="N22" s="14">
-        <f>IF(N$17&lt;=$I22,0,$J22)</f>
+        <f t="shared" si="1"/>
         <v>253.53126804432006</v>
       </c>
       <c r="O22" s="14">
-        <f>I22</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P22" s="11" cm="1">
@@ -6855,17 +6850,17 @@
         <v>52.529614708844385</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C23">
         <v>-158</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J23" s="15" cm="1">
@@ -6874,19 +6869,19 @@
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="14">
-        <f>IF(L$17&lt;=$I23,0,$J23)</f>
+        <f t="shared" si="1"/>
         <v>55.227341570390529</v>
       </c>
       <c r="M23" s="14">
-        <f>IF(M$17&lt;=$I23,0,$J23)</f>
+        <f t="shared" si="1"/>
         <v>55.227341570390529</v>
       </c>
       <c r="N23" s="14">
-        <f>IF(N$17&lt;=$I23,0,$J23)</f>
+        <f t="shared" si="1"/>
         <v>55.227341570390529</v>
       </c>
       <c r="O23" s="14">
-        <f>I23</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P23" s="11" cm="1">
@@ -6906,17 +6901,17 @@
         <v>-30.380746960894008</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C24">
         <v>-211</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J24" s="15" cm="1">
@@ -6925,19 +6920,19 @@
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="14">
-        <f>IF(L$17&lt;=$I24,0,$J24)</f>
+        <f t="shared" si="1"/>
         <v>-33.66278921580777</v>
       </c>
       <c r="M24" s="14">
-        <f>IF(M$17&lt;=$I24,0,$J24)</f>
+        <f t="shared" si="1"/>
         <v>-33.66278921580777</v>
       </c>
       <c r="N24" s="14">
-        <f>IF(N$17&lt;=$I24,0,$J24)</f>
+        <f t="shared" si="1"/>
         <v>-33.66278921580777</v>
       </c>
       <c r="O24" s="14">
-        <f>I24</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="P24" s="11" cm="1">
@@ -6957,17 +6952,17 @@
         <v>-107.60855115497905</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C25">
         <v>-267</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J25" s="15" cm="1">
@@ -6976,19 +6971,19 @@
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="14">
-        <f>IF(L$17&lt;=$I25,0,$J25)</f>
+        <f t="shared" si="1"/>
         <v>240.81266363644698</v>
       </c>
       <c r="M25" s="14">
-        <f>IF(M$17&lt;=$I25,0,$J25)</f>
+        <f t="shared" si="1"/>
         <v>240.81266363644698</v>
       </c>
       <c r="N25" s="14">
-        <f>IF(N$17&lt;=$I25,0,$J25)</f>
+        <f t="shared" si="1"/>
         <v>240.81266363644698</v>
       </c>
       <c r="O25" s="14">
-        <f>I25</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="P25" s="11" cm="1">
@@ -7008,17 +7003,17 @@
         <v>-171.23701412804084</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C26">
         <v>-305</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J26" s="15" cm="1">
@@ -7027,19 +7022,19 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="14">
-        <f>IF(L$17&lt;=$I26,0,$J26)</f>
+        <f t="shared" si="1"/>
         <v>-285.34248958911371</v>
       </c>
       <c r="M26" s="14">
-        <f>IF(M$17&lt;=$I26,0,$J26)</f>
+        <f t="shared" si="1"/>
         <v>-285.34248958911371</v>
       </c>
       <c r="N26" s="14">
-        <f>IF(N$17&lt;=$I26,0,$J26)</f>
+        <f t="shared" si="1"/>
         <v>-285.34248958911371</v>
       </c>
       <c r="O26" s="14">
-        <f>I26</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="P26" s="11" cm="1">
@@ -7059,17 +7054,17 @@
         <v>-214.87445385107503</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C27">
         <v>-332</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J27" s="15" cm="1">
@@ -7078,19 +7073,19 @@
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="14">
-        <f>IF(L$17&lt;=$I27,0,$J27)</f>
+        <f t="shared" si="1"/>
         <v>-169.85011530017786</v>
       </c>
       <c r="M27" s="14">
-        <f>IF(M$17&lt;=$I27,0,$J27)</f>
+        <f t="shared" si="1"/>
         <v>-169.85011530017786</v>
       </c>
       <c r="N27" s="14">
-        <f>IF(N$17&lt;=$I27,0,$J27)</f>
+        <f t="shared" si="1"/>
         <v>-169.85011530017786</v>
       </c>
       <c r="O27" s="14">
-        <f>I27</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="P27" s="11" cm="1">
@@ -7110,17 +7105,17 @@
         <v>-234.33544387565595</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C28">
         <v>-355</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J28" s="15" cm="1">
@@ -7129,19 +7124,19 @@
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="14">
-        <f>IF(L$17&lt;=$I28,0,$J28)</f>
+        <f t="shared" si="1"/>
         <v>1360.5106690163052</v>
       </c>
       <c r="M28" s="14">
-        <f>IF(M$17&lt;=$I28,0,$J28)</f>
+        <f t="shared" si="1"/>
         <v>1360.5106690163052</v>
       </c>
       <c r="N28" s="14">
-        <f>IF(N$17&lt;=$I28,0,$J28)</f>
+        <f t="shared" si="1"/>
         <v>1360.5106690163052</v>
       </c>
       <c r="O28" s="14">
-        <f>I28</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P28" s="11" cm="1">
@@ -7161,16 +7156,16 @@
         <v>-228.08158090333922</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C29">
         <v>-299</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="J29" s="15" cm="1">
@@ -7179,19 +7174,19 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="14">
-        <f>IF(L$17&lt;=$I29,0,$J29)</f>
+        <f t="shared" si="1"/>
         <v>611.86896924264295</v>
       </c>
       <c r="M29" s="14">
-        <f>IF(M$17&lt;=$I29,0,$J29)</f>
+        <f t="shared" si="1"/>
         <v>611.86896924264295</v>
       </c>
       <c r="N29" s="14">
-        <f>IF(N$17&lt;=$I29,0,$J29)</f>
+        <f t="shared" si="1"/>
         <v>611.86896924264295</v>
       </c>
       <c r="O29" s="14">
-        <f>I29</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P29" s="11" cm="1">
@@ -7211,16 +7206,16 @@
         <v>-197.37464156010813</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C30">
         <v>-171</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J30" s="15" cm="1">
@@ -7229,19 +7224,19 @@
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="14">
-        <f>IF(L$17&lt;=$I30,0,$J30)</f>
+        <f t="shared" si="1"/>
         <v>297.83160848784041</v>
       </c>
       <c r="M30" s="14">
-        <f>IF(M$17&lt;=$I30,0,$J30)</f>
+        <f t="shared" si="1"/>
         <v>297.83160848784041</v>
       </c>
       <c r="N30" s="14">
-        <f>IF(N$17&lt;=$I30,0,$J30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="14">
-        <f>I30</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="P30" s="11" cm="1">
@@ -7261,16 +7256,16 @@
         <v>-146.12621300387525</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C31">
         <v>-19</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="J31" s="15" cm="1">
@@ -7279,19 +7274,19 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="14">
-        <f>IF(L$17&lt;=$I31,0,$J31)</f>
+        <f t="shared" si="1"/>
         <v>1198.567814094507</v>
       </c>
       <c r="M31" s="14">
-        <f>IF(M$17&lt;=$I31,0,$J31)</f>
+        <f t="shared" si="1"/>
         <v>1198.567814094507</v>
       </c>
       <c r="N31" s="14">
-        <f>IF(N$17&lt;=$I31,0,$J31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="14">
-        <f>I31</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="P31" s="11" cm="1">
@@ -7311,16 +7306,16 @@
         <v>-80.460845107785488</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C32">
         <v>144</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="J32" s="15" cm="1">
@@ -7329,19 +7324,19 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="14">
-        <f>IF(L$17&lt;=$I32,0,$J32)</f>
+        <f t="shared" si="1"/>
         <v>-694.21107709313367</v>
       </c>
       <c r="M32" s="14">
-        <f>IF(M$17&lt;=$I32,0,$J32)</f>
+        <f t="shared" si="1"/>
         <v>-694.21107709313367</v>
       </c>
       <c r="N32" s="14">
-        <f>IF(N$17&lt;=$I32,0,$J32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O32" s="14">
-        <f>I32</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P32" s="11" cm="1">
@@ -7361,16 +7356,16 @@
         <v>-8.0407940464808032</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C33">
         <v>290</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J33" s="15" cm="1">
@@ -7379,19 +7374,19 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="14">
-        <f>IF(L$17&lt;=$I33,0,$J33)</f>
+        <f t="shared" si="1"/>
         <v>-91.304049865708407</v>
       </c>
       <c r="M33" s="14">
-        <f>IF(M$17&lt;=$I33,0,$J33)</f>
+        <f t="shared" si="1"/>
         <v>-91.304049865708407</v>
       </c>
       <c r="N33" s="14">
-        <f>IF(N$17&lt;=$I33,0,$J33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33" s="14">
-        <f>I33</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P33" s="11" cm="1">
@@ -7411,16 +7406,16 @@
         <v>62.773863470974888</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C34">
         <v>372</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="J34" s="15" cm="1">
@@ -7429,19 +7424,19 @@
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="14">
-        <f>IF(L$17&lt;=$I34,0,$J34)</f>
+        <f t="shared" si="1"/>
         <v>808.92505957056437</v>
       </c>
       <c r="M34" s="14">
-        <f>IF(M$17&lt;=$I34,0,$J34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N34" s="14">
-        <f>IF(N$17&lt;=$I34,0,$J34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="14">
-        <f>I34</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="P34" s="11" cm="1">
@@ -7461,16 +7456,16 @@
         <v>123.83834927506025</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C35">
         <v>410</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="J35" s="15" cm="1">
@@ -7479,19 +7474,19 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="14">
-        <f>IF(L$17&lt;=$I35,0,$J35)</f>
+        <f t="shared" si="1"/>
         <v>351.31505505278903</v>
       </c>
       <c r="M35" s="14">
-        <f>IF(M$17&lt;=$I35,0,$J35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="14">
-        <f>IF(N$17&lt;=$I35,0,$J35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O35" s="14">
-        <f>I35</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="P35" s="11" cm="1">
@@ -7511,16 +7506,16 @@
         <v>168.11050224117957</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C36">
         <v>327</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="J36" s="15" cm="1">
@@ -7529,19 +7524,19 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="14">
-        <f>IF(L$17&lt;=$I36,0,$J36)</f>
+        <f t="shared" si="1"/>
         <v>-519.90410599986876</v>
       </c>
       <c r="M36" s="14">
-        <f>IF(M$17&lt;=$I36,0,$J36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36" s="14">
-        <f>IF(N$17&lt;=$I36,0,$J36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O36" s="14">
-        <f>I36</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="P36" s="11" cm="1">
@@ -7561,16 +7556,16 @@
         <v>190.41639376099261</v>
       </c>
     </row>
-    <row r="37" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C37">
         <v>132</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="J37" s="15" cm="1">
@@ -7579,19 +7574,19 @@
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="14">
-        <f>IF(L$17&lt;=$I37,0,$J37)</f>
+        <f t="shared" si="1"/>
         <v>-765.14542190930297</v>
       </c>
       <c r="M37" s="14">
-        <f>IF(M$17&lt;=$I37,0,$J37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="14">
-        <f>IF(N$17&lt;=$I37,0,$J37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="14">
-        <f>I37</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="P37" s="11" cm="1">
@@ -7611,16 +7606,16 @@
         <v>188.01185124633085</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C38">
         <v>-54</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J38" s="15" cm="1">
@@ -7629,19 +7624,19 @@
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="14">
-        <f>IF(L$17&lt;=$I38,0,$J38)</f>
+        <f t="shared" ref="L38:N57" si="5">IF(L$17&lt;=$I38,0,$J38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="14">
-        <f>IF(M$17&lt;=$I38,0,$J38)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f>IF(N$17&lt;=$I38,0,$J38)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O38" s="14">
-        <f>I38</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="P38" s="11" cm="1">
@@ -7661,16 +7656,16 @@
         <v>160.87988015509129</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C39">
         <v>-180</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="J39" s="15" cm="1">
@@ -7679,19 +7674,19 @@
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="14">
-        <f>IF(L$17&lt;=$I39,0,$J39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39" s="14">
-        <f>IF(M$17&lt;=$I39,0,$J39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N39" s="14">
-        <f>IF(N$17&lt;=$I39,0,$J39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O39" s="14">
-        <f>I39</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="P39" s="11" cm="1">
@@ -7711,16 +7706,16 @@
         <v>111.73274679895098</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C40">
         <v>-252</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J40" s="15" cm="1">
@@ -7729,19 +7724,19 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="14">
-        <f>IF(L$17&lt;=$I40,0,$J40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M40" s="14">
-        <f>IF(M$17&lt;=$I40,0,$J40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N40" s="14">
-        <f>IF(N$17&lt;=$I40,0,$J40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O40" s="14">
-        <f>I40</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="P40" s="11" cm="1">
@@ -7761,16 +7756,16 @@
         <v>45.719493167835395</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C41">
         <v>-213</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="J41" s="15" cm="1">
@@ -7779,19 +7774,19 @@
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="14">
-        <f>IF(L$17&lt;=$I41,0,$J41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M41" s="14">
-        <f>IF(M$17&lt;=$I41,0,$J41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N41" s="14">
-        <f>IF(N$17&lt;=$I41,0,$J41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O41" s="14">
-        <f>I41</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="P41" s="11" cm="1">
@@ -7811,16 +7806,16 @@
         <v>-30.128586914366338</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C42">
         <v>-110</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J42" s="15" cm="1">
@@ -7829,19 +7824,19 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="14">
-        <f>IF(L$17&lt;=$I42,0,$J42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M42" s="14">
-        <f>IF(M$17&lt;=$I42,0,$J42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N42" s="14">
-        <f>IF(N$17&lt;=$I42,0,$J42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O42" s="14">
-        <f>I42</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="P42" s="11" cm="1">
@@ -7861,16 +7856,16 @@
         <v>-107.65391210829674</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C43">
         <v>-14</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J43" s="15" cm="1">
@@ -7879,19 +7874,19 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="14">
-        <f>IF(L$17&lt;=$I43,0,$J43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M43" s="14">
-        <f>IF(M$17&lt;=$I43,0,$J43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N43" s="14">
-        <f>IF(N$17&lt;=$I43,0,$J43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O43" s="14">
-        <f>I43</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="P43" s="11" cm="1">
@@ -7911,16 +7906,16 @@
         <v>-178.44805443246574</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C44">
         <v>-5</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="J44" s="15" cm="1">
@@ -7929,19 +7924,19 @@
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="14">
-        <f>IF(L$17&lt;=$I44,0,$J44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M44" s="14">
-        <f>IF(M$17&lt;=$I44,0,$J44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N44" s="14">
-        <f>IF(N$17&lt;=$I44,0,$J44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="14">
-        <f>I44</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="P44" s="11" cm="1">
@@ -7961,16 +7956,16 @@
         <v>-234.75229454857671</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C45">
         <v>-103</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="J45" s="15" cm="1">
@@ -7979,19 +7974,19 @@
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="14">
-        <f>IF(L$17&lt;=$I45,0,$J45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="14">
-        <f>IF(M$17&lt;=$I45,0,$J45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N45" s="14">
-        <f>IF(N$17&lt;=$I45,0,$J45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O45" s="14">
-        <f>I45</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="P45" s="11" cm="1">
@@ -8011,16 +8006,16 @@
         <v>-270.28677268691524</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C46">
         <v>-238</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J46" s="15" cm="1">
@@ -8029,19 +8024,19 @@
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="14">
-        <f>IF(L$17&lt;=$I46,0,$J46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M46" s="14">
-        <f>IF(M$17&lt;=$I46,0,$J46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N46" s="14">
-        <f>IF(N$17&lt;=$I46,0,$J46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O46" s="14">
-        <f>I46</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="P46" s="11" cm="1">
@@ -8061,16 +8056,16 @@
         <v>-280.91995491943959</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C47">
         <v>-361</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="J47" s="15" cm="1">
@@ -8079,19 +8074,19 @@
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="14">
-        <f>IF(L$17&lt;=$I47,0,$J47)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M47" s="14">
-        <f>IF(M$17&lt;=$I47,0,$J47)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N47" s="14">
-        <f>IF(N$17&lt;=$I47,0,$J47)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O47" s="14">
-        <f>I47</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="P47" s="11" cm="1">
@@ -8111,16 +8106,16 @@
         <v>-265.1077943150903</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C48">
         <v>-399</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J48" s="15" cm="1">
@@ -8129,19 +8124,19 @@
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="14">
-        <f>IF(L$17&lt;=$I48,0,$J48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M48" s="14">
-        <f>IF(M$17&lt;=$I48,0,$J48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <f>IF(N$17&lt;=$I48,0,$J48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O48" s="14">
-        <f>I48</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P48" s="11" cm="1">
@@ -8161,16 +8156,16 @@
         <v>-224.05706314254815</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C49">
         <v>-335</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="J49" s="15" cm="1">
@@ -8179,19 +8174,19 @@
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="14">
-        <f>IF(L$17&lt;=$I49,0,$J49)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M49" s="14">
-        <f>IF(M$17&lt;=$I49,0,$J49)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N49" s="14">
-        <f>IF(N$17&lt;=$I49,0,$J49)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49" s="14">
-        <f>I49</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="P49" s="11" cm="1">
@@ -8211,16 +8206,16 @@
         <v>-161.59709607077912</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C50">
         <v>-164</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="J50" s="15" cm="1">
@@ -8229,19 +8224,19 @@
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="14">
-        <f>IF(L$17&lt;=$I50,0,$J50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M50" s="14">
-        <f>IF(M$17&lt;=$I50,0,$J50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N50" s="14">
-        <f>IF(N$17&lt;=$I50,0,$J50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O50" s="14">
-        <f>I50</f>
+        <f t="shared" ref="O50:O81" si="6">I50</f>
         <v>32</v>
       </c>
       <c r="P50" s="11" cm="1">
@@ -8261,16 +8256,16 @@
         <v>-83.775369469520484</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C51">
         <v>39</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="J51" s="15" cm="1">
@@ -8279,19 +8274,19 @@
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="14">
-        <f>IF(L$17&lt;=$I51,0,$J51)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M51" s="14">
-        <f>IF(M$17&lt;=$I51,0,$J51)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N51" s="14">
-        <f>IF(N$17&lt;=$I51,0,$J51)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O51" s="14">
-        <f>I51</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="P51" s="11" cm="1">
@@ -8311,16 +8306,16 @@
         <v>1.7784160197639738</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C52">
         <v>249</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="J52" s="15" cm="1">
@@ -8329,19 +8324,19 @@
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="14">
-        <f>IF(L$17&lt;=$I52,0,$J52)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M52" s="14">
-        <f>IF(M$17&lt;=$I52,0,$J52)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N52" s="14">
-        <f>IF(N$17&lt;=$I52,0,$J52)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O52" s="14">
-        <f>I52</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="P52" s="11" cm="1">
@@ -8361,16 +8356,16 @@
         <v>86.650900346263896</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C53">
         <v>431</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J53" s="15" cm="1">
@@ -8379,19 +8374,19 @@
       </c>
       <c r="K53" s="15"/>
       <c r="L53" s="14">
-        <f>IF(L$17&lt;=$I53,0,$J53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M53" s="14">
-        <f>IF(M$17&lt;=$I53,0,$J53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N53" s="14">
-        <f>IF(N$17&lt;=$I53,0,$J53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O53" s="14">
-        <f>I53</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="P53" s="11" cm="1">
@@ -8411,16 +8406,16 @@
         <v>162.52083932879</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C54">
         <v>506</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="J54" s="15" cm="1">
@@ -8429,19 +8424,19 @@
       </c>
       <c r="K54" s="15"/>
       <c r="L54" s="14">
-        <f>IF(L$17&lt;=$I54,0,$J54)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M54" s="14">
-        <f>IF(M$17&lt;=$I54,0,$J54)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N54" s="14">
-        <f>IF(N$17&lt;=$I54,0,$J54)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O54" s="14">
-        <f>I54</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="P54" s="11" cm="1">
@@ -8461,16 +8456,16 @@
         <v>222.01934498982934</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C55">
         <v>495</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="J55" s="15" cm="1">
@@ -8479,19 +8474,19 @@
       </c>
       <c r="K55" s="15"/>
       <c r="L55" s="14">
-        <f>IF(L$17&lt;=$I55,0,$J55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M55" s="14">
-        <f>IF(M$17&lt;=$I55,0,$J55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N55" s="14">
-        <f>IF(N$17&lt;=$I55,0,$J55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O55" s="14">
-        <f>I55</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="P55" s="11" cm="1">
@@ -8511,16 +8506,16 @@
         <v>259.48448105172866</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C56">
         <v>403</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J56" s="15" cm="1">
@@ -8529,19 +8524,19 @@
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="14">
-        <f>IF(L$17&lt;=$I56,0,$J56)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M56" s="14">
-        <f>IF(M$17&lt;=$I56,0,$J56)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N56" s="14">
-        <f>IF(N$17&lt;=$I56,0,$J56)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O56" s="14">
-        <f>I56</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="P56" s="11" cm="1">
@@ -8561,16 +8556,16 @@
         <v>271.53226928914967</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C57">
         <v>165</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J57" s="15" cm="1">
@@ -8579,19 +8574,19 @@
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="14">
-        <f>IF(L$17&lt;=$I57,0,$J57)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M57" s="14">
-        <f>IF(M$17&lt;=$I57,0,$J57)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N57" s="14">
-        <f>IF(N$17&lt;=$I57,0,$J57)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O57" s="14">
-        <f>I57</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="P57" s="11" cm="1">
@@ -8611,16 +8606,16 @@
         <v>257.38642681703908</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C58">
         <v>-88</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="J58" s="15" cm="1">
@@ -8629,19 +8624,19 @@
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="14">
-        <f>IF(L$17&lt;=$I58,0,$J58)</f>
+        <f t="shared" ref="L58:N77" si="7">IF(L$17&lt;=$I58,0,$J58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="14">
-        <f>IF(M$17&lt;=$I58,0,$J58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N58" s="14">
-        <f>IF(N$17&lt;=$I58,0,$J58)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O58" s="14">
-        <f>I58</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="P58" s="11" cm="1">
@@ -8661,16 +8656,16 @@
         <v>218.93523884516452</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C59">
         <v>-306</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="J59" s="15" cm="1">
@@ -8679,19 +8674,19 @@
       </c>
       <c r="K59" s="15"/>
       <c r="L59" s="14">
-        <f>IF(L$17&lt;=$I59,0,$J59)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M59" s="14">
-        <f>IF(M$17&lt;=$I59,0,$J59)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N59" s="14">
-        <f>IF(N$17&lt;=$I59,0,$J59)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O59" s="14">
-        <f>I59</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="P59" s="11" cm="1">
@@ -8711,16 +8706,16 @@
         <v>160.51300939313097</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C60">
         <v>-423</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="J60" s="15" cm="1">
@@ -8729,19 +8724,19 @@
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="14">
-        <f>IF(L$17&lt;=$I60,0,$J60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M60" s="14">
-        <f>IF(M$17&lt;=$I60,0,$J60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N60" s="14">
-        <f>IF(N$17&lt;=$I60,0,$J60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O60" s="14">
-        <f>I60</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="P60" s="11" cm="1">
@@ -8761,16 +8756,16 @@
         <v>88.43238867159441</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C61">
         <v>-379</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="J61" s="15" cm="1">
@@ -8779,19 +8774,19 @@
       </c>
       <c r="K61" s="15"/>
       <c r="L61" s="14">
-        <f>IF(L$17&lt;=$I61,0,$J61)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M61" s="14">
-        <f>IF(M$17&lt;=$I61,0,$J61)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N61" s="14">
-        <f>IF(N$17&lt;=$I61,0,$J61)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O61" s="14">
-        <f>I61</f>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="P61" s="11" cm="1">
@@ -8811,16 +8806,16 @@
         <v>10.319489080936728</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="C62">
         <v>-149</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="J62" s="15" cm="1">
@@ -8829,19 +8824,19 @@
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="14">
-        <f>IF(L$17&lt;=$I62,0,$J62)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M62" s="14">
-        <f>IF(M$17&lt;=$I62,0,$J62)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N62" s="14">
-        <f>IF(N$17&lt;=$I62,0,$J62)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O62" s="14">
-        <f>I62</f>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="P62" s="11" cm="1">
@@ -8861,16 +8856,16 @@
         <v>-65.676586595301174</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="C63">
         <v>90</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J63" s="15" cm="1">
@@ -8879,19 +8874,19 @@
       </c>
       <c r="K63" s="15"/>
       <c r="L63" s="14">
-        <f>IF(L$17&lt;=$I63,0,$J63)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M63" s="14">
-        <f>IF(M$17&lt;=$I63,0,$J63)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N63" s="14">
-        <f>IF(N$17&lt;=$I63,0,$J63)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O63" s="14">
-        <f>I63</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="P63" s="11" cm="1">
@@ -8911,16 +8906,16 @@
         <v>-131.71634866673961</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C64">
         <v>208</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J64" s="15" cm="1">
@@ -8929,19 +8924,19 @@
       </c>
       <c r="K64" s="15"/>
       <c r="L64" s="14">
-        <f>IF(L$17&lt;=$I64,0,$J64)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M64" s="14">
-        <f>IF(M$17&lt;=$I64,0,$J64)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N64" s="14">
-        <f>IF(N$17&lt;=$I64,0,$J64)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O64" s="14">
-        <f>I64</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="P64" s="11" cm="1">
@@ -8961,16 +8956,16 @@
         <v>-181.05834301334866</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C65">
         <v>278</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="J65" s="15" cm="1">
@@ -8979,19 +8974,19 @@
       </c>
       <c r="K65" s="15"/>
       <c r="L65" s="14">
-        <f>IF(L$17&lt;=$I65,0,$J65)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M65" s="14">
-        <f>IF(M$17&lt;=$I65,0,$J65)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N65" s="14">
-        <f>IF(N$17&lt;=$I65,0,$J65)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O65" s="14">
-        <f>I65</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="P65" s="11" cm="1">
@@ -9011,16 +9006,16 @@
         <v>-208.72331611239221</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="C66">
         <v>246</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="J66" s="15" cm="1">
@@ -9029,19 +9024,19 @@
       </c>
       <c r="K66" s="15"/>
       <c r="L66" s="14">
-        <f>IF(L$17&lt;=$I66,0,$J66)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M66" s="14">
-        <f>IF(M$17&lt;=$I66,0,$J66)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N66" s="14">
-        <f>IF(N$17&lt;=$I66,0,$J66)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O66" s="14">
-        <f>I66</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="P66" s="11" cm="1">
@@ -9061,16 +9056,16 @@
         <v>-211.96852027101278</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="C67">
         <v>128</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="J67" s="15" cm="1">
@@ -9079,19 +9074,19 @@
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="14">
-        <f>IF(L$17&lt;=$I67,0,$J67)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M67" s="14">
-        <f>IF(M$17&lt;=$I67,0,$J67)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N67" s="14">
-        <f>IF(N$17&lt;=$I67,0,$J67)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O67" s="14">
-        <f>I67</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="P67" s="11" cm="1">
@@ -9111,16 +9106,16 @@
         <v>-190.52755602041174</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="C68">
         <v>-60</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J68" s="15" cm="1">
@@ -9129,19 +9124,19 @@
       </c>
       <c r="K68" s="15"/>
       <c r="L68" s="14">
-        <f>IF(L$17&lt;=$I68,0,$J68)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M68" s="14">
-        <f>IF(M$17&lt;=$I68,0,$J68)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N68" s="14">
-        <f>IF(N$17&lt;=$I68,0,$J68)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O68" s="14">
-        <f>I68</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="P68" s="11" cm="1">
@@ -9161,16 +9156,16 @@
         <v>-146.59630668637891</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C69">
         <v>-168</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="J69" s="15" cm="1">
@@ -9179,19 +9174,19 @@
       </c>
       <c r="K69" s="15"/>
       <c r="L69" s="14">
-        <f>IF(L$17&lt;=$I69,0,$J69)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M69" s="14">
-        <f>IF(M$17&lt;=$I69,0,$J69)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N69" s="14">
-        <f>IF(N$17&lt;=$I69,0,$J69)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O69" s="14">
-        <f>I69</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="P69" s="11" cm="1">
@@ -9211,16 +9206,16 @@
         <v>-84.572086852027937</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="C70">
         <v>-208</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="J70" s="15" cm="1">
@@ -9229,19 +9224,19 @@
       </c>
       <c r="K70" s="15"/>
       <c r="L70" s="14">
-        <f>IF(L$17&lt;=$I70,0,$J70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M70" s="14">
-        <f>IF(M$17&lt;=$I70,0,$J70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N70" s="14">
-        <f>IF(N$17&lt;=$I70,0,$J70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O70" s="14">
-        <f>I70</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="P70" s="11" cm="1">
@@ -9261,16 +9256,16 @@
         <v>-10.578272901810966</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="C71">
         <v>-179</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="J71" s="15" cm="1">
@@ -9279,19 +9274,19 @@
       </c>
       <c r="K71" s="15"/>
       <c r="L71" s="14">
-        <f>IF(L$17&lt;=$I71,0,$J71)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M71" s="14">
-        <f>IF(M$17&lt;=$I71,0,$J71)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N71" s="14">
-        <f>IF(N$17&lt;=$I71,0,$J71)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O71" s="14">
-        <f>I71</f>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="P71" s="11" cm="1">
@@ -9311,16 +9306,16 @@
         <v>68.17219192729705</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C72">
         <v>-192</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="J72" s="15" cm="1">
@@ -9329,19 +9324,19 @@
       </c>
       <c r="K72" s="15"/>
       <c r="L72" s="14">
-        <f>IF(L$17&lt;=$I72,0,$J72)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M72" s="14">
-        <f>IF(M$17&lt;=$I72,0,$J72)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N72" s="14">
-        <f>IF(N$17&lt;=$I72,0,$J72)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O72" s="14">
-        <f>I72</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="P72" s="11" cm="1">
@@ -9361,16 +9356,16 @@
         <v>144.10602582905625</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C73">
         <v>-105</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="J73" s="15" cm="1">
@@ -9379,19 +9374,19 @@
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="14">
-        <f>IF(L$17&lt;=$I73,0,$J73)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M73" s="14">
-        <f>IF(M$17&lt;=$I73,0,$J73)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N73" s="14">
-        <f>IF(N$17&lt;=$I73,0,$J73)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O73" s="14">
-        <f>I73</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="P73" s="11" cm="1">
@@ -9411,16 +9406,16 @@
         <v>210.0356940047084</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J74" s="15" cm="1">
@@ -9429,19 +9424,19 @@
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="14">
-        <f>IF(L$17&lt;=$I74,0,$J74)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M74" s="14">
-        <f>IF(M$17&lt;=$I74,0,$J74)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N74" s="14">
-        <f>IF(N$17&lt;=$I74,0,$J74)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O74" s="14">
-        <f>I74</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="P74" s="11" cm="1">
@@ -9461,16 +9456,16 @@
         <v>259.8470597954676</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C75">
         <v>121</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="J75" s="15" cm="1">
@@ -9479,19 +9474,19 @@
       </c>
       <c r="K75" s="15"/>
       <c r="L75" s="14">
-        <f>IF(L$17&lt;=$I75,0,$J75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M75" s="14">
-        <f>IF(M$17&lt;=$I75,0,$J75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N75" s="14">
-        <f>IF(N$17&lt;=$I75,0,$J75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O75" s="14">
-        <f>I75</f>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="P75" s="11" cm="1">
@@ -9511,16 +9506,16 @@
         <v>289.06164209682407</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="C76">
         <v>234</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="J76" s="15" cm="1">
@@ -9529,19 +9524,19 @@
       </c>
       <c r="K76" s="15"/>
       <c r="L76" s="14">
-        <f>IF(L$17&lt;=$I76,0,$J76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M76" s="14">
-        <f>IF(M$17&lt;=$I76,0,$J76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N76" s="14">
-        <f>IF(N$17&lt;=$I76,0,$J76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O76" s="14">
-        <f>I76</f>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="P76" s="11" cm="1">
@@ -9561,16 +9556,16 @@
         <v>295.22147025714162</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C77">
         <v>378</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="J77" s="15" cm="1">
@@ -9579,19 +9574,19 @@
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="14">
-        <f>IF(L$17&lt;=$I77,0,$J77)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M77" s="14">
-        <f>IF(M$17&lt;=$I77,0,$J77)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N77" s="14">
-        <f>IF(N$17&lt;=$I77,0,$J77)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O77" s="14">
-        <f>I77</f>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="P77" s="11" cm="1">
@@ -9611,16 +9606,16 @@
         <v>278.06430397130714</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C78">
         <v>493</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J78" s="15" cm="1">
@@ -9629,19 +9624,19 @@
       </c>
       <c r="K78" s="15"/>
       <c r="L78" s="14">
-        <f>IF(L$17&lt;=$I78,0,$J78)</f>
+        <f t="shared" ref="L78:N97" si="8">IF(L$17&lt;=$I78,0,$J78)</f>
         <v>0</v>
       </c>
       <c r="M78" s="14">
-        <f>IF(M$17&lt;=$I78,0,$J78)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N78" s="14">
-        <f>IF(N$17&lt;=$I78,0,$J78)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O78" s="14">
-        <f>I78</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="P78" s="11" cm="1">
@@ -9661,16 +9656,16 @@
         <v>239.47934860304679</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C79">
         <v>502</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="J79" s="15" cm="1">
@@ -9679,19 +9674,19 @@
       </c>
       <c r="K79" s="15"/>
       <c r="L79" s="14">
-        <f>IF(L$17&lt;=$I79,0,$J79)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M79" s="14">
-        <f>IF(M$17&lt;=$I79,0,$J79)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N79" s="14">
-        <f>IF(N$17&lt;=$I79,0,$J79)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O79" s="14">
-        <f>I79</f>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="P79" s="11" cm="1">
@@ -9711,16 +9706,16 @@
         <v>183.25611578741277</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="C80">
         <v>458</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="J80" s="15" cm="1">
@@ -9729,19 +9724,19 @@
       </c>
       <c r="K80" s="15"/>
       <c r="L80" s="14">
-        <f>IF(L$17&lt;=$I80,0,$J80)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M80" s="14">
-        <f>IF(M$17&lt;=$I80,0,$J80)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N80" s="14">
-        <f>IF(N$17&lt;=$I80,0,$J80)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O80" s="14">
-        <f>I80</f>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="P80" s="11" cm="1">
@@ -9761,16 +9756,16 @@
         <v>114.65940181757465</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="C81">
         <v>334</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="J81" s="15" cm="1">
@@ -9779,19 +9774,19 @@
       </c>
       <c r="K81" s="15"/>
       <c r="L81" s="14">
-        <f>IF(L$17&lt;=$I81,0,$J81)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M81" s="14">
-        <f>IF(M$17&lt;=$I81,0,$J81)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N81" s="14">
-        <f>IF(N$17&lt;=$I81,0,$J81)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O81" s="14">
-        <f>I81</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="P81" s="11" cm="1">
@@ -9811,16 +9806,16 @@
         <v>39.879455363768095</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="C82">
         <v>135</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="J82" s="15" cm="1">
@@ -9829,19 +9824,19 @@
       </c>
       <c r="K82" s="15"/>
       <c r="L82" s="14">
-        <f>IF(L$17&lt;=$I82,0,$J82)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M82" s="14">
-        <f>IF(M$17&lt;=$I82,0,$J82)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N82" s="14">
-        <f>IF(N$17&lt;=$I82,0,$J82)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O82" s="14">
-        <f>I82</f>
+        <f t="shared" ref="O82:O117" si="9">I82</f>
         <v>64</v>
       </c>
       <c r="P82" s="11" cm="1">
@@ -9861,16 +9856,16 @@
         <v>-34.583214366469413</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="C83">
         <v>-104</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="J83" s="15" cm="1">
@@ -9879,19 +9874,19 @@
       </c>
       <c r="K83" s="15"/>
       <c r="L83" s="14">
-        <f>IF(L$17&lt;=$I83,0,$J83)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M83" s="14">
-        <f>IF(M$17&lt;=$I83,0,$J83)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N83" s="14">
-        <f>IF(N$17&lt;=$I83,0,$J83)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O83" s="14">
-        <f>I83</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="P83" s="11" cm="1">
@@ -9911,16 +9906,16 @@
         <v>-102.53510405010313</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
-        <f t="shared" ref="B84:B117" si="3">B83+1</f>
+        <f t="shared" ref="B84:B117" si="10">B83+1</f>
         <v>66</v>
       </c>
       <c r="C84">
         <v>-319</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" ref="I84:I117" si="4">I83+1</f>
+        <f t="shared" ref="I84:I117" si="11">I83+1</f>
         <v>66</v>
       </c>
       <c r="J84" s="15" cm="1">
@@ -9929,19 +9924,19 @@
       </c>
       <c r="K84" s="15"/>
       <c r="L84" s="14">
-        <f>IF(L$17&lt;=$I84,0,$J84)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M84" s="14">
-        <f>IF(M$17&lt;=$I84,0,$J84)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N84" s="14">
-        <f>IF(N$17&lt;=$I84,0,$J84)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O84" s="14">
-        <f>I84</f>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="P84" s="11" cm="1">
@@ -9961,16 +9956,16 @@
         <v>-158.64858058794118</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="C85">
         <v>-433</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="J85" s="15" cm="1">
@@ -9979,19 +9974,19 @@
       </c>
       <c r="K85" s="15"/>
       <c r="L85" s="14">
-        <f>IF(L$17&lt;=$I85,0,$J85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M85" s="14">
-        <f>IF(M$17&lt;=$I85,0,$J85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N85" s="14">
-        <f>IF(N$17&lt;=$I85,0,$J85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O85" s="14">
-        <f>I85</f>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="P85" s="11" cm="1">
@@ -10011,16 +10006,16 @@
         <v>-198.91070603194518</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="C86">
         <v>-452</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="J86" s="15" cm="1">
@@ -10029,19 +10024,19 @@
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="14">
-        <f>IF(L$17&lt;=$I86,0,$J86)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M86" s="14">
-        <f>IF(M$17&lt;=$I86,0,$J86)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N86" s="14">
-        <f>IF(N$17&lt;=$I86,0,$J86)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O86" s="14">
-        <f>I86</f>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="P86" s="11" cm="1">
@@ -10061,16 +10056,16 @@
         <v>-220.92403575333938</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="C87">
         <v>-426</v>
       </c>
       <c r="I87" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="J87" s="15" cm="1">
@@ -10079,19 +10074,19 @@
       </c>
       <c r="K87" s="15"/>
       <c r="L87" s="14">
-        <f>IF(L$17&lt;=$I87,0,$J87)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M87" s="14">
-        <f>IF(M$17&lt;=$I87,0,$J87)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N87" s="14">
-        <f>IF(N$17&lt;=$I87,0,$J87)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O87" s="14">
-        <f>I87</f>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="P87" s="11" cm="1">
@@ -10111,16 +10106,16 @@
         <v>-224.03819417339625</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="C88">
         <v>-379</v>
       </c>
       <c r="I88" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="J88" s="15" cm="1">
@@ -10129,19 +10124,19 @@
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="14">
-        <f>IF(L$17&lt;=$I88,0,$J88)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M88" s="14">
-        <f>IF(M$17&lt;=$I88,0,$J88)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N88" s="14">
-        <f>IF(N$17&lt;=$I88,0,$J88)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O88" s="14">
-        <f>I88</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="P88" s="11" cm="1">
@@ -10161,16 +10156,16 @@
         <v>-209.30905048314315</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="C89">
         <v>-296</v>
       </c>
       <c r="I89" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="J89" s="15" cm="1">
@@ -10179,19 +10174,19 @@
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="14">
-        <f>IF(L$17&lt;=$I89,0,$J89)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M89" s="14">
-        <f>IF(M$17&lt;=$I89,0,$J89)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N89" s="14">
-        <f>IF(N$17&lt;=$I89,0,$J89)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O89" s="14">
-        <f>I89</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="P89" s="11" cm="1">
@@ -10211,16 +10206,16 @@
         <v>-179.29961934620593</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="C90">
         <v>-183</v>
       </c>
       <c r="I90" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="J90" s="15" cm="1">
@@ -10229,19 +10224,19 @@
       </c>
       <c r="K90" s="15"/>
       <c r="L90" s="14">
-        <f>IF(L$17&lt;=$I90,0,$J90)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M90" s="14">
-        <f>IF(M$17&lt;=$I90,0,$J90)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N90" s="14">
-        <f>IF(N$17&lt;=$I90,0,$J90)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O90" s="14">
-        <f>I90</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="P90" s="11" cm="1">
@@ -10261,16 +10256,16 @@
         <v>-137.75164147239457</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="C91">
         <v>-64</v>
       </c>
       <c r="I91" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="J91" s="15" cm="1">
@@ -10279,19 +10274,19 @@
       </c>
       <c r="K91" s="15"/>
       <c r="L91" s="14">
-        <f>IF(L$17&lt;=$I91,0,$J91)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M91" s="14">
-        <f>IF(M$17&lt;=$I91,0,$J91)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N91" s="14">
-        <f>IF(N$17&lt;=$I91,0,$J91)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O91" s="14">
-        <f>I91</f>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="P91" s="11" cm="1">
@@ -10311,16 +10306,16 @@
         <v>-89.167764125558961</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="C92">
         <v>60</v>
       </c>
       <c r="I92" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="J92" s="15" cm="1">
@@ -10329,19 +10324,19 @@
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="14">
-        <f>IF(L$17&lt;=$I92,0,$J92)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M92" s="14">
-        <f>IF(M$17&lt;=$I92,0,$J92)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N92" s="14">
-        <f>IF(N$17&lt;=$I92,0,$J92)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O92" s="14">
-        <f>I92</f>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="P92" s="11" cm="1">
@@ -10361,16 +10356,16 @@
         <v>-38.350445436751635</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="C93">
         <v>117</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="J93" s="15" cm="1">
@@ -10379,19 +10374,19 @@
       </c>
       <c r="K93" s="15"/>
       <c r="L93" s="14">
-        <f>IF(L$17&lt;=$I93,0,$J93)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M93" s="14">
-        <f>IF(M$17&lt;=$I93,0,$J93)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N93" s="14">
-        <f>IF(N$17&lt;=$I93,0,$J93)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O93" s="14">
-        <f>I93</f>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="P93" s="11" cm="1">
@@ -10411,16 +10406,16 @@
         <v>10.055184211747335</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="C94">
         <v>174</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="J94" s="15" cm="1">
@@ -10429,19 +10424,19 @@
       </c>
       <c r="K94" s="15"/>
       <c r="L94" s="14">
-        <f>IF(L$17&lt;=$I94,0,$J94)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M94" s="14">
-        <f>IF(M$17&lt;=$I94,0,$J94)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N94" s="14">
-        <f>IF(N$17&lt;=$I94,0,$J94)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O94" s="14">
-        <f>I94</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="P94" s="11" cm="1">
@@ -10461,16 +10456,16 @@
         <v>51.971023237491842</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="C95">
         <v>234</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="J95" s="15" cm="1">
@@ -10479,19 +10474,19 @@
       </c>
       <c r="K95" s="15"/>
       <c r="L95" s="14">
-        <f>IF(L$17&lt;=$I95,0,$J95)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M95" s="14">
-        <f>IF(M$17&lt;=$I95,0,$J95)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N95" s="14">
-        <f>IF(N$17&lt;=$I95,0,$J95)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O95" s="14">
-        <f>I95</f>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="P95" s="11" cm="1">
@@ -10511,16 +10506,16 @@
         <v>84.212660692290385</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="C96">
         <v>281</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="J96" s="15" cm="1">
@@ -10529,19 +10524,19 @@
       </c>
       <c r="K96" s="15"/>
       <c r="L96" s="14">
-        <f>IF(L$17&lt;=$I96,0,$J96)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M96" s="14">
-        <f>IF(M$17&lt;=$I96,0,$J96)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N96" s="14">
-        <f>IF(N$17&lt;=$I96,0,$J96)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O96" s="14">
-        <f>I96</f>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="P96" s="11" cm="1">
@@ -10561,16 +10556,16 @@
         <v>104.708276269615</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="C97">
         <v>279</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="J97" s="15" cm="1">
@@ -10579,19 +10574,19 @@
       </c>
       <c r="K97" s="15"/>
       <c r="L97" s="14">
-        <f>IF(L$17&lt;=$I97,0,$J97)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M97" s="14">
-        <f>IF(M$17&lt;=$I97,0,$J97)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N97" s="14">
-        <f>IF(N$17&lt;=$I97,0,$J97)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O97" s="14">
-        <f>I97</f>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="P97" s="11" cm="1">
@@ -10611,16 +10606,16 @@
         <v>112.59757012094614</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C98">
         <v>222</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="J98" s="15" cm="1">
@@ -10629,19 +10624,19 @@
       </c>
       <c r="K98" s="15"/>
       <c r="L98" s="14">
-        <f>IF(L$17&lt;=$I98,0,$J98)</f>
+        <f t="shared" ref="L98:N117" si="12">IF(L$17&lt;=$I98,0,$J98)</f>
         <v>0</v>
       </c>
       <c r="M98" s="14">
-        <f>IF(M$17&lt;=$I98,0,$J98)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N98" s="14">
-        <f>IF(N$17&lt;=$I98,0,$J98)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O98" s="14">
-        <f>I98</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="P98" s="11" cm="1">
@@ -10661,16 +10656,16 @@
         <v>108.21122724042102</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="C99">
         <v>121</v>
       </c>
       <c r="I99" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="J99" s="15" cm="1">
@@ -10679,19 +10674,19 @@
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="14">
-        <f>IF(L$17&lt;=$I99,0,$J99)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M99" s="14">
-        <f>IF(M$17&lt;=$I99,0,$J99)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N99" s="14">
-        <f>IF(N$17&lt;=$I99,0,$J99)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O99" s="14">
-        <f>I99</f>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="P99" s="11" cm="1">
@@ -10711,16 +10706,16 @@
         <v>92.942990039769242</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="C100">
         <v>-23</v>
       </c>
       <c r="I100" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="J100" s="15" cm="1">
@@ -10729,19 +10724,19 @@
       </c>
       <c r="K100" s="15"/>
       <c r="L100" s="14">
-        <f>IF(L$17&lt;=$I100,0,$J100)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M100" s="14">
-        <f>IF(M$17&lt;=$I100,0,$J100)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N100" s="14">
-        <f>IF(N$17&lt;=$I100,0,$J100)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O100" s="14">
-        <f>I100</f>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="P100" s="11" cm="1">
@@ -10761,16 +10756,16 @@
         <v>69.03572976843391</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="C101">
         <v>-160</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="J101" s="15" cm="1">
@@ -10779,19 +10774,19 @@
       </c>
       <c r="K101" s="15"/>
       <c r="L101" s="14">
-        <f>IF(L$17&lt;=$I101,0,$J101)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M101" s="14">
-        <f>IF(M$17&lt;=$I101,0,$J101)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N101" s="14">
-        <f>IF(N$17&lt;=$I101,0,$J101)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O101" s="14">
-        <f>I101</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="P101" s="11" cm="1">
@@ -10811,16 +10806,16 @@
         <v>39.30920567663803</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="C102">
         <v>-243</v>
       </c>
       <c r="I102" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="J102" s="15" cm="1">
@@ -10829,19 +10824,19 @@
       </c>
       <c r="K102" s="15"/>
       <c r="L102" s="14">
-        <f>IF(L$17&lt;=$I102,0,$J102)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M102" s="14">
-        <f>IF(M$17&lt;=$I102,0,$J102)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N102" s="14">
-        <f>IF(N$17&lt;=$I102,0,$J102)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O102" s="14">
-        <f>I102</f>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="P102" s="11" cm="1">
@@ -10861,16 +10856,16 @@
         <v>6.8601117533481295</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="C103">
         <v>-275</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="J103" s="15" cm="1">
@@ -10879,19 +10874,19 @@
       </c>
       <c r="K103" s="15"/>
       <c r="L103" s="14">
-        <f>IF(L$17&lt;=$I103,0,$J103)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M103" s="14">
-        <f>IF(M$17&lt;=$I103,0,$J103)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N103" s="14">
-        <f>IF(N$17&lt;=$I103,0,$J103)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O103" s="14">
-        <f>I103</f>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="P103" s="11" cm="1">
@@ -10911,16 +10906,16 @@
         <v>-25.23542858178558</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="C104">
         <v>-239</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="J104" s="15" cm="1">
@@ -10929,19 +10924,19 @@
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="14">
-        <f>IF(L$17&lt;=$I104,0,$J104)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M104" s="14">
-        <f>IF(M$17&lt;=$I104,0,$J104)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N104" s="14">
-        <f>IF(N$17&lt;=$I104,0,$J104)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O104" s="14">
-        <f>I104</f>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="P104" s="11" cm="1">
@@ -10961,16 +10956,16 @@
         <v>-54.190148037721357</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="C105">
         <v>-152</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="J105" s="15" cm="1">
@@ -10979,19 +10974,19 @@
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="14">
-        <f>IF(L$17&lt;=$I105,0,$J105)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M105" s="14">
-        <f>IF(M$17&lt;=$I105,0,$J105)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N105" s="14">
-        <f>IF(N$17&lt;=$I105,0,$J105)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O105" s="14">
-        <f>I105</f>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="P105" s="11" cm="1">
@@ -11011,16 +11006,16 @@
         <v>-77.72358238613694</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="C106">
         <v>-56</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="J106" s="15" cm="1">
@@ -11029,19 +11024,19 @@
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="14">
-        <f>IF(L$17&lt;=$I106,0,$J106)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M106" s="14">
-        <f>IF(M$17&lt;=$I106,0,$J106)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N106" s="14">
-        <f>IF(N$17&lt;=$I106,0,$J106)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O106" s="14">
-        <f>I106</f>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="P106" s="11" cm="1">
@@ -11061,16 +11056,16 @@
         <v>-94.215616521773867</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="C107">
         <v>35</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="J107" s="15" cm="1">
@@ -11079,19 +11074,19 @@
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="14">
-        <f>IF(L$17&lt;=$I107,0,$J107)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M107" s="14">
-        <f>IF(M$17&lt;=$I107,0,$J107)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N107" s="14">
-        <f>IF(N$17&lt;=$I107,0,$J107)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O107" s="14">
-        <f>I107</f>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="P107" s="11" cm="1">
@@ -11111,16 +11106,16 @@
         <v>-102.78911062822675</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="C108">
         <v>86</v>
       </c>
       <c r="I108" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="J108" s="15" cm="1">
@@ -11129,19 +11124,19 @@
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="14">
-        <f>IF(L$17&lt;=$I108,0,$J108)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M108" s="14">
-        <f>IF(M$17&lt;=$I108,0,$J108)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N108" s="14">
-        <f>IF(N$17&lt;=$I108,0,$J108)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O108" s="14">
-        <f>I108</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="P108" s="11" cm="1">
@@ -11161,16 +11156,16 @@
         <v>-103.32225886878184</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="C109">
         <v>97</v>
       </c>
       <c r="I109" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="J109" s="15" cm="1">
@@ -11179,19 +11174,19 @@
       </c>
       <c r="K109" s="15"/>
       <c r="L109" s="14">
-        <f>IF(L$17&lt;=$I109,0,$J109)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M109" s="14">
-        <f>IF(M$17&lt;=$I109,0,$J109)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N109" s="14">
-        <f>IF(N$17&lt;=$I109,0,$J109)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O109" s="14">
-        <f>I109</f>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="P109" s="11" cm="1">
@@ -11211,16 +11206,16 @@
         <v>-96.397429865742708</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="C110">
         <v>90</v>
       </c>
       <c r="I110" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="J110" s="15" cm="1">
@@ -11229,19 +11224,19 @@
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="14">
-        <f>IF(L$17&lt;=$I110,0,$J110)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M110" s="14">
-        <f>IF(M$17&lt;=$I110,0,$J110)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N110" s="14">
-        <f>IF(N$17&lt;=$I110,0,$J110)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O110" s="14">
-        <f>I110</f>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="P110" s="11" cm="1">
@@ -11261,16 +11256,16 @@
         <v>-83.197780823275281</v>
       </c>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="C111">
         <v>46</v>
       </c>
       <c r="I111" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="J111" s="15" cm="1">
@@ -11279,19 +11274,19 @@
       </c>
       <c r="K111" s="15"/>
       <c r="L111" s="14">
-        <f>IF(L$17&lt;=$I111,0,$J111)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M111" s="14">
-        <f>IF(M$17&lt;=$I111,0,$J111)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N111" s="14">
-        <f>IF(N$17&lt;=$I111,0,$J111)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O111" s="14">
-        <f>I111</f>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="P111" s="11" cm="1">
@@ -11311,16 +11306,16 @@
         <v>-65.365700873718282</v>
       </c>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="C112">
         <v>-1</v>
       </c>
       <c r="I112" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="J112" s="15" cm="1">
@@ -11329,19 +11324,19 @@
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="14">
-        <f>IF(L$17&lt;=$I112,0,$J112)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M112" s="14">
-        <f>IF(M$17&lt;=$I112,0,$J112)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N112" s="14">
-        <f>IF(N$17&lt;=$I112,0,$J112)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O112" s="14">
-        <f>I112</f>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="P112" s="11" cm="1">
@@ -11361,16 +11356,16 @@
         <v>-44.838149428370372</v>
       </c>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="C113">
         <v>-35</v>
       </c>
       <c r="I113" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="J113" s="15" cm="1">
@@ -11379,19 +11374,19 @@
       </c>
       <c r="K113" s="15"/>
       <c r="L113" s="14">
-        <f>IF(L$17&lt;=$I113,0,$J113)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M113" s="14">
-        <f>IF(M$17&lt;=$I113,0,$J113)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N113" s="14">
-        <f>IF(N$17&lt;=$I113,0,$J113)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O113" s="14">
-        <f>I113</f>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="P113" s="11" cm="1">
@@ -11411,16 +11406,16 @@
         <v>-23.673448980075687</v>
       </c>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C114">
         <v>-88</v>
       </c>
       <c r="I114" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="J114" s="15" cm="1">
@@ -11429,19 +11424,19 @@
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="14">
-        <f>IF(L$17&lt;=$I114,0,$J114)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M114" s="14">
-        <f>IF(M$17&lt;=$I114,0,$J114)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N114" s="14">
-        <f>IF(N$17&lt;=$I114,0,$J114)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O114" s="14">
-        <f>I114</f>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="P114" s="11" cm="1">
@@ -11461,16 +11456,16 @@
         <v>-3.8824540557798737</v>
       </c>
     </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="C115">
         <v>-85</v>
       </c>
       <c r="I115" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="J115" s="15" cm="1">
@@ -11479,19 +11474,19 @@
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="14">
-        <f>IF(L$17&lt;=$I115,0,$J115)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M115" s="14">
-        <f>IF(M$17&lt;=$I115,0,$J115)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N115" s="14">
-        <f>IF(N$17&lt;=$I115,0,$J115)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O115" s="14">
-        <f>I115</f>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="P115" s="11" cm="1">
@@ -11511,16 +11506,16 @@
         <v>12.725295612514683</v>
       </c>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="C116">
         <v>-71</v>
       </c>
       <c r="I116" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="J116" s="15" cm="1">
@@ -11529,19 +11524,19 @@
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="14">
-        <f>IF(L$17&lt;=$I116,0,$J116)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M116" s="14">
-        <f>IF(M$17&lt;=$I116,0,$J116)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N116" s="14">
-        <f>IF(N$17&lt;=$I116,0,$J116)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O116" s="14">
-        <f>I116</f>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="P116" s="11" cm="1">
@@ -11561,16 +11556,16 @@
         <v>24.672372752742355</v>
       </c>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="C117">
         <v>-42</v>
       </c>
       <c r="I117" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="J117" s="15" cm="1">
@@ -11579,19 +11574,19 @@
       </c>
       <c r="K117" s="15"/>
       <c r="L117" s="14">
-        <f>IF(L$17&lt;=$I117,0,$J117)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M117" s="14">
-        <f>IF(M$17&lt;=$I117,0,$J117)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N117" s="14">
-        <f>IF(N$17&lt;=$I117,0,$J117)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O117" s="14">
-        <f>I117</f>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="P117" s="11" cm="1">
@@ -11611,472 +11606,472 @@
         <v>30.915550976854771</v>
       </c>
     </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="4"/>
       <c r="C273" s="3"/>
     </row>
@@ -12086,6 +12081,7 @@
     <mergeCell ref="L4:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Discrete cosine transform.xlsx
+++ b/Discrete cosine transform.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{AA5B9487-A7ED-4C02-9FDC-10F45FBE8F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C494568C-0EC4-4007-B42C-44A6F6B2163F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="6_{AA5B9487-A7ED-4C02-9FDC-10F45FBE8F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8D81A7-E5C6-4B97-8C83-CEE57D8CAA9B}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3330" windowWidth="18915" windowHeight="10200" xr2:uid="{368B135D-14A8-4707-A4A9-8B692AD8CD57}"/>
+    <workbookView xWindow="2595" yWindow="1050" windowWidth="23700" windowHeight="14550" xr2:uid="{368B135D-14A8-4707-A4A9-8B692AD8CD57}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital signal processing" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,6 @@
   </si>
   <si>
     <t>k, n</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This file is part of Calculate discrete cosine transform (DCT) with Excel: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://github.com/BojanJurca/Calculate-discrete-cosine-transform-DCT-with-ExcelClap-Recognition-System</t>
-    </r>
   </si>
   <si>
     <t>The input (signal)</t>
@@ -194,6 +178,22 @@
   </si>
   <si>
     <t>Choose only the first M coeficients:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This file is part of Calculate discrete cosine transform (DCT) with Excel: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/BojanJurca/Calculate-discrete-cosine-transform-DCT-with-Excel</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5649,7 +5649,7 @@
   <dimension ref="A1:CH273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,27 +5663,27 @@
   <sheetData>
     <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="7"/>
       <c r="G3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="7"/>
       <c r="L3" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -5762,14 +5762,14 @@
     </row>
     <row r="4" spans="1:86" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="7"/>
       <c r="L4" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -6529,7 +6529,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="L15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -6542,13 +6542,13 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="L16" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P16" s="3"/>
     </row>
